--- a/data/576/SGSE/Straits Times Index - Daily.xlsx
+++ b/data/576/SGSE/Straits Times Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PQX2"/>
+  <dimension ref="A1:PRC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56764,15 +56764,40 @@
       </c>
       <c r="PQV1" s="1" t="inlineStr">
         <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="PQW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="PQX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="PQY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="PQZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="PRA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="PQW1" s="1" t="inlineStr">
+      <c r="PRB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="PQX1" s="1" t="inlineStr">
+      <c r="PRC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -89816,17 +89841,32 @@
       <c r="PQU2" t="n">
         <v>3442.61</v>
       </c>
-      <c r="PQV2" t="inlineStr">
+      <c r="PQV2" t="n">
+        <v>3408.52</v>
+      </c>
+      <c r="PQW2" t="n">
+        <v>3419.11</v>
+      </c>
+      <c r="PQX2" t="n">
+        <v>3416.97</v>
+      </c>
+      <c r="PQY2" t="n">
+        <v>3445.01</v>
+      </c>
+      <c r="PQZ2" t="n">
+        <v>3431.52</v>
+      </c>
+      <c r="PRA2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="PQW2" t="inlineStr">
+      <c r="PRB2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="PQX2" t="inlineStr">
+      <c r="PRC2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>

--- a/data/576/SGSE/Straits Times Index - Daily.xlsx
+++ b/data/576/SGSE/Straits Times Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PRC2"/>
+  <dimension ref="A1:PRN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56789,15 +56789,70 @@
       </c>
       <c r="PRA1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="PRB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="PRC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="PRD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="PRE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="PRF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="PRG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="PRH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="PRI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="PRJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="PRK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="PRL1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="PRB1" s="1" t="inlineStr">
+      <c r="PRM1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="PRC1" s="1" t="inlineStr">
+      <c r="PRN1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -89854,19 +89909,52 @@
         <v>3445.01</v>
       </c>
       <c r="PQZ2" t="n">
-        <v>3431.52</v>
-      </c>
-      <c r="PRA2" t="inlineStr">
+        <v>3422.95</v>
+      </c>
+      <c r="PRA2" t="n">
+        <v>3404.23</v>
+      </c>
+      <c r="PRB2" t="n">
+        <v>3383.28</v>
+      </c>
+      <c r="PRC2" t="n">
+        <v>3363.56</v>
+      </c>
+      <c r="PRD2" t="n">
+        <v>3330.25</v>
+      </c>
+      <c r="PRE2" t="n">
+        <v>3342.22</v>
+      </c>
+      <c r="PRF2" t="n">
+        <v>3335.85</v>
+      </c>
+      <c r="PRG2" t="n">
+        <v>3303.07</v>
+      </c>
+      <c r="PRH2" t="n">
+        <v>3307.13</v>
+      </c>
+      <c r="PRI2" t="n">
+        <v>3335.32</v>
+      </c>
+      <c r="PRJ2" t="n">
+        <v>3348.46</v>
+      </c>
+      <c r="PRK2" t="n">
+        <v>3361.99</v>
+      </c>
+      <c r="PRL2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="PRB2" t="inlineStr">
+      <c r="PRM2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="PRC2" t="inlineStr">
+      <c r="PRN2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>
